--- a/Location_based_analysis/under_wind/data/lps/StationInfo_lps.xlsx
+++ b/Location_based_analysis/under_wind/data/lps/StationInfo_lps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rainfall\Location_based_analysis\under_wind\data\lps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8459C1-7EA3-43A3-A66C-00695F1F0171}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B902CE7-F3BB-40A0-98CC-3079D354836B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,13 +88,16 @@
     <t>RG008</t>
   </si>
   <si>
-    <t>WG001</t>
-  </si>
-  <si>
-    <t>WG002</t>
-  </si>
-  <si>
-    <t>WG003</t>
+    <t>WG005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WG006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WG007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="L16" activeCellId="1" sqref="B12 L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -480,6 +483,9 @@
       <c r="D2">
         <v>35.670277777777777</v>
       </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -494,6 +500,9 @@
       <c r="D3">
         <v>35.74</v>
       </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -508,6 +517,9 @@
       <c r="D4">
         <v>35.691111111111105</v>
       </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -522,6 +534,9 @@
       <c r="D5">
         <v>35.600277777777777</v>
       </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -536,6 +551,9 @@
       <c r="D6">
         <v>35.874166666666667</v>
       </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -550,6 +568,9 @@
       <c r="D7">
         <v>35.67722222222222</v>
       </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -564,6 +585,9 @@
       <c r="D8">
         <v>35.655277777777776</v>
       </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -578,6 +602,9 @@
       <c r="D9">
         <v>35.614166666666669</v>
       </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -592,6 +619,9 @@
       <c r="D10">
         <v>35.663055555555552</v>
       </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -606,6 +636,9 @@
       <c r="D11">
         <v>35.70194444444445</v>
       </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -620,6 +653,9 @@
       <c r="D12">
         <v>35.66171388888889</v>
       </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -635,6 +671,9 @@
       <c r="D13">
         <v>35.661591666666666</v>
       </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -649,6 +688,9 @@
       </c>
       <c r="D14">
         <v>35.663197222222223</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
       </c>
       <c r="K14" s="1"/>
     </row>

--- a/Location_based_analysis/under_wind/data/lps/StationInfo_lps.xlsx
+++ b/Location_based_analysis/under_wind/data/lps/StationInfo_lps.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rainfall\Location_based_analysis\under_wind\data\lps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B902CE7-F3BB-40A0-98CC-3079D354836B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FF8127-E5DB-4E82-8FA0-B17055F854AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -446,7 +446,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" activeCellId="1" sqref="B12 L16"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
